--- a/biology/Microbiologie/Algues_des_neiges/Algues_des_neiges.xlsx
+++ b/biology/Microbiologie/Algues_des_neiges/Algues_des_neiges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les algues des neiges sont des micro-algues proliférant dans la neige. On les retrouve principalement sur les surfaces enneigées qui fondent partiellement ou totalement l'été. Ainsi, elles se développent dans les montagnes de hautes altitudes telles les Alpes, les Andes, les Montagnes Rocheuses, l'Himalaya, etc., ou dans les régions polaires comme en Norvège, sur l'archipel de Svalbard, le Groenland et en Antarctique. Les proliférations d'algues des neiges colorent la neige en vert, jaune ou rouge[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les algues des neiges sont des micro-algues proliférant dans la neige. On les retrouve principalement sur les surfaces enneigées qui fondent partiellement ou totalement l'été. Ainsi, elles se développent dans les montagnes de hautes altitudes telles les Alpes, les Andes, les Montagnes Rocheuses, l'Himalaya, etc., ou dans les régions polaires comme en Norvège, sur l'archipel de Svalbard, le Groenland et en Antarctique. Les proliférations d'algues des neiges colorent la neige en vert, jaune ou rouge.
 </t>
         </is>
       </c>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De la poudre ?
-Les neiges colorées par ces algues font parler d'elles depuis bien longtemps. Les premiers écris antiques du philosophe Aristote[2] et puis Pline l'ancien[3] mentionnent cette neige colorée par des particules rouges. En 1760, le naturaliste genevois de Saussure observa et décris cette neige rouge trouvée dans les Alpes suisse et suppose qu'elle est une poudre minéral[4].
-Une algue des neiges
-En 1819, des échantillons de "neige rouge" ont été ramenés pour examen par une expédition arctique de Sir John Ross. Les échantillons ont été envoyés à Robert Brown et Francis Bauer pour examen[5]. Les deux hommes sont parvenus à des conclusions différentes quant à la classification des spécimens. Brown pense qu'il s'agit d'une algue unicellulaire, tandis que Bauer déclare qu'il s'agit d'une nouvelle espèce de champignon, Uredo nivalis. Les conclusions de Brown se sont avérées véritables et confirmées par des recherches effectuées plus tard.
-Des algues des neiges diverses et variées
-De nos jours, plusieurs équipes de recherches scientifiques tentent de percer les mystères des algues des neiges et décrire leur diversité, écologie et impact sur la fonte des neiges et glaciers, notamment dans un contexte de changement climatique. Les nouvelles espèces trouvées sont pour certaines stockées dans la collection de culture cryophilique (http://cccryo.fraunhofer.de). 
+          <t>De la poudre ?</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neiges colorées par ces algues font parler d'elles depuis bien longtemps. Les premiers écris antiques du philosophe Aristote et puis Pline l'ancien mentionnent cette neige colorée par des particules rouges. En 1760, le naturaliste genevois de Saussure observa et décris cette neige rouge trouvée dans les Alpes suisse et suppose qu'elle est une poudre minéral.
 </t>
         </is>
       </c>
@@ -544,14 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Efflorescence ou « Bloom »</t>
+          <t>Histoire et algues des neiges</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les efflorescences ou proliférations concentrées en cellule que l'on appelle des « blooms » en anglais, peuvent fortement colorer le manteau neigeux. Ces colorations altèrent les propriétés de réflexion de lumière de la neige que l'on appelle l'albédo. En effet, là où il y a prolifération de microorganismes dans la neige, l'énergie lumineuse est absorbée par les particules sombres (cellule d'algues des neiges) et libère de la chaleur accélérant la fonte des neiges. Sur une échelle mondiale, ce phénomène participe significativement à l'accélération des manteaux neigeux et glaciers sur Terre[6],[7]. Des techniques de « remote-sensing » utilisant l'imagerie satellite sont en développement pour évaluer et surveiller l'étendu et intensité de ces blooms[8],[9].
-La couleur de ces blooms dépend de la composition en microalgues. Lorsqu'elle est verte, les microalgues sont majoritairement pigmentés avec des pigments chlorophylliens. On retrouve ces blooms majoritairement en bordure de mers ou dans des sous-bois, là ou il y aurait potentiellement un apport riche en nutriment des autres plantes ou animaux.
-Les blooms rouges sont les plus célèbres, parfois appelés « neiges de sang » (en anglais : watermelon snow) ou « Sang des glaciers ». La couleur rouge provient de l'accumulation d'un pigment rouge photoprotecteur appelé l'Astaxanthine. Il semblerait que les algues accumulant ce dernier pigment appartiennent aux genres Sanguina et Chlainomonas (en)[10],[11],[12],[13],[14].
+          <t>Une algue des neiges</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1819, des échantillons de "neige rouge" ont été ramenés pour examen par une expédition arctique de Sir John Ross. Les échantillons ont été envoyés à Robert Brown et Francis Bauer pour examen. Les deux hommes sont parvenus à des conclusions différentes quant à la classification des spécimens. Brown pense qu'il s'agit d'une algue unicellulaire, tandis que Bauer déclare qu'il s'agit d'une nouvelle espèce de champignon, Uredo nivalis. Les conclusions de Brown se sont avérées véritables et confirmées par des recherches effectuées plus tard.
 </t>
         </is>
       </c>
@@ -577,10 +594,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Diversité</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Histoire et algues des neiges</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Des algues des neiges diverses et variées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nos jours, plusieurs équipes de recherches scientifiques tentent de percer les mystères des algues des neiges et décrire leur diversité, écologie et impact sur la fonte des neiges et glaciers, notamment dans un contexte de changement climatique. Les nouvelles espèces trouvées sont pour certaines stockées dans la collection de culture cryophilique (http://cccryo.fraunhofer.de). 
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,10 +631,75 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Efflorescence ou « Bloom »</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les efflorescences ou proliférations concentrées en cellule que l'on appelle des « blooms » en anglais, peuvent fortement colorer le manteau neigeux. Ces colorations altèrent les propriétés de réflexion de lumière de la neige que l'on appelle l'albédo. En effet, là où il y a prolifération de microorganismes dans la neige, l'énergie lumineuse est absorbée par les particules sombres (cellule d'algues des neiges) et libère de la chaleur accélérant la fonte des neiges. Sur une échelle mondiale, ce phénomène participe significativement à l'accélération des manteaux neigeux et glaciers sur Terre,. Des techniques de « remote-sensing » utilisant l'imagerie satellite sont en développement pour évaluer et surveiller l'étendu et intensité de ces blooms,.
+La couleur de ces blooms dépend de la composition en microalgues. Lorsqu'elle est verte, les microalgues sont majoritairement pigmentés avec des pigments chlorophylliens. On retrouve ces blooms majoritairement en bordure de mers ou dans des sous-bois, là ou il y aurait potentiellement un apport riche en nutriment des autres plantes ou animaux.
+Les blooms rouges sont les plus célèbres, parfois appelés « neiges de sang » (en anglais : watermelon snow) ou « Sang des glaciers ». La couleur rouge provient de l'accumulation d'un pigment rouge photoprotecteur appelé l'Astaxanthine. Il semblerait que les algues accumulant ce dernier pigment appartiennent aux genres Sanguina et Chlainomonas (en).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Algues_des_neiges</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Algues_des_neiges</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diversité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Algues_des_neiges</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Algues_des_neiges</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
